--- a/Enterprises.xlsx
+++ b/Enterprises.xlsx
@@ -8498,7 +8498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X322"/>
+  <dimension ref="A1:Y322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8627,6 +8627,11 @@
           <t>生产情况简介</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>url_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8730,6 +8735,11 @@
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>201902090</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8838,6 +8848,11 @@
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>1671</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8945,6 +8960,11 @@
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>1277</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9048,6 +9068,11 @@
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>1278</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9147,6 +9172,11 @@
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9258,6 +9288,11 @@
           <t>从事TFT液晶用玻璃基板的加工和技术研发，是中国大陆第一家第五代薄膜晶体管液晶显示器件（简称TFT-LCD）用玻璃基板加工生产企业</t>
         </is>
       </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9369,6 +9404,11 @@
           <t>东邦化学（上海）有限公司是一家日资独资企业，主要生产酰胺官能团化合物；阴离子表面活性剂；阳离子表面活性剂；非离子表面活性剂；两性表面活性剂；透水剂；造纸工业用调整剂；原油用工程药剂；橡胶、树脂用安定剂；丙烯酸酯；甲基丙烯酸酯；聚亚烃基乙二醇系聚羧酸聚合体；双酚A聚氧乙烯醚；聚乙烯/聚丙烯乳液，公司地址是金山区金山卫镇卫六路389号，东至卫六路.西至竹本油脂化工企业.南至沪杭公路.北至海金路。共投资39002万元，成立于2010年7月.注册资本5185.5316万美元.占地面积100237.1平方米.总建筑面积为9198.74平方米，于2013年建成，于2014年4月正式投产。</t>
         </is>
       </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9482,6 +9522,11 @@
       <c r="X9" t="inlineStr">
         <is>
           <t>年产15720吨聚氨酯关联产品（其中7000吨为涂料固化剂；8000吨为多元醇组合料；720吨为医用封止剂）</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>201902143</t>
         </is>
       </c>
     </row>
@@ -9583,6 +9628,11 @@
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>1675</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9687,6 +9737,11 @@
 生产工艺：套内层、预热、防渗、浸胶、烘干、浸胶、防滑、烘干、清洗、烘干、包装入库。</t>
         </is>
       </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>1021</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9802,6 +9857,11 @@
           <t>公司主要从事涂料用合成树脂的生产、研发、销售。生产产品为：丙烯酸树脂、 聚酯树脂、环氧改性丙烯酸树脂、醇酸树脂、无油醇酸树脂</t>
         </is>
       </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>201902202</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9913,6 +9973,11 @@
           <t>正常</t>
         </is>
       </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>1279</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10024,6 +10089,11 @@
           <t>模具制造--注塑成型--喷漆（部分产品）--印刷（部分产品）--检验出货</t>
         </is>
       </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>201902178</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10131,6 +10201,11 @@
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>1677</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10234,6 +10309,11 @@
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>201902047</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10350,6 +10430,11 @@
 现有员工人数约450人，有DPL车间、装配车间、QMH车间、特殊照明车间、钠灯内胆车间、HLD车间、UV车间等。</t>
         </is>
       </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>202001004</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10457,6 +10542,11 @@
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>1022</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10566,6 +10656,11 @@
       <c r="X19" t="inlineStr">
         <is>
           <t>医疗服务</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>1999</t>
         </is>
       </c>
     </row>
@@ -10685,6 +10780,11 @@
  福达（上海）食品有限公司上海工厂是集酱油等调味品的研发、生产、包装、物流功能于一体的大型综合生产基地。公司占地总面积约87,000平方米，总投资超过6亿元人民币，投产后年产量达到10万吨以上，这为亨氏加速在调味品领域的发展奠定基础。</t>
         </is>
       </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>201903001</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10795,6 +10895,11 @@
         <is>
           <t>福耀集团（全称福耀玻璃工业集团股份有限公司），1987年在中国福州注册成立，是一家专业生产汽车安全玻璃和工业技术玻璃的中外合资企业，也是名符其实的大型跨国工业集团。1993年，福耀集团股票在上海证券交易所挂牌，成为中国同行业首家上市公司。
 福耀集团（上海）汽车玻璃有限公司成立于2002年4月15日，属有限责任公司，主要经营范围为平板玻璃深加工，平板玻璃深加工技术及设备制造，销售公司自产产品。公司主要产品为轿车用夹层玻璃及钢化玻璃，其中，夹层玻璃年产量约350万片，钢化玻璃年产量约3000万片。</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>1284</t>
         </is>
       </c>
     </row>
@@ -10868,6 +10973,11 @@
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>201904074</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10967,6 +11077,11 @@
       </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2075</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11070,6 +11185,11 @@
       </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11181,6 +11301,11 @@
           <t>各类压缩机的加工、装配、试车及包装</t>
         </is>
       </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11286,6 +11411,11 @@
       <c r="X26" t="inlineStr">
         <is>
           <t>研发、生产和加工电子专用设备、测试仪器、工模具、新型电子元器件，制造数字电视机、数字摄录机、数字录放机、宽带接入网通信系统设备、LED照明装置，医疗设备组装，销售公司自产产品，提供相关软件开发、维修和技术咨询服务，精密仪器、设备维修和技术咨询服务；上述产品同类商品的进出口业务，批发业务，佣金代理（拍卖除外）及其他相关配套业务（设计行政许可的，凭许可证经营）。</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>1285</t>
         </is>
       </c>
     </row>
@@ -11396,6 +11526,11 @@
 企业目前已建投产项目为设计生产9900吨／年的漆包线。公司厂区实行雨污分流，生活污水纳管排放。公司有生产废气排放，已按VOCs减排要求实施了集中收集处理排放。生产固废严格按要求委托资质单位处置。工业废气、厂界噪声、食堂油烟、生活污水等排放均实施定期检测，各项检测指标均符合国家及上海市排放标准。</t>
         </is>
       </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>1680</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11503,6 +11638,11 @@
           <t>本公司设计与制造塑料制品相关的精密塑料模具、从事塑料制品的成形、喷涂、组装以及印刷等加工服务，是以提供从模具设计到塑料制品生产的一站式生产服务体系为特徵的制造型企业。生产的制品有手机外壳、电脑外壳、电子产品部件、家用电器及车辆零部件等，在各领域被广泛利用。公司秉承“技术，品质，创意，挑战”的发展方针，愿为广大客户提供最优质满意的产品服务，以独特的技术创造崭新的塑料世界。</t>
         </is>
       </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>201902091</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11606,6 +11746,11 @@
           <t>主要制造复合及非复合热传输铝带材，铝板，以及利用其制作铝管。</t>
         </is>
       </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>1023</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11705,6 +11850,11 @@
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>1024</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11814,6 +11964,11 @@
       <c r="X31" t="inlineStr">
         <is>
           <t>我司主要生产鲜牛奶（果汁）的屋顶型纸盒液体纸包装盒，2017年生产产值为7152万元，产量为5580吨。</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>1286</t>
         </is>
       </c>
     </row>
@@ -11907,6 +12062,11 @@
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2254</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -12018,6 +12178,11 @@
           <t>奶牛养殖，生产新鲜原料奶。牛粪污水固液分离后进氧化塘后还田。</t>
         </is>
       </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2099</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -12135,6 +12300,11 @@
       <c r="X34" t="inlineStr">
         <is>
           <t>光明乳业华东中央工厂位于上海市闵行区马桥镇西南，总占地面积155080平方米（约232亩），总建筑面积127502 平方米,其中包括综合集约化生产区域、综合动力区域、物流中心基地、乳品中试车间、乳品博物馆等功能区块，厂区内设置了环境舒适的员工食堂与培训、文体活动区域，还有近3万平米的景观绿化。 工厂引进国内外先进生产设备和流水线，以及高度自动化的控制中心系统，实现密闭生产，且能记录、收集、统计、分析所有生产过程数据，从而实现生产流程中实时的质量监控，纠偏与追溯功能，最大限度的保证食品安全。 光明乳业华东中央工厂项目总投资约14亿元，完全建成投产后后可达日产2300吨液态乳制品，年产量60万吨，相当于中国乳业同期预计液态乳制品总量的2％，其规模位居世界首位。 华东中央工厂将是国家级的工业示范旅游基地，是光明乳业、光明集团、乃至中国食品业对外宣传、展示的一张靓丽的名片，是上海、是中国的骄傲！</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -12208,6 +12378,11 @@
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>202002001</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12279,6 +12454,11 @@
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>202004004</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -12386,6 +12566,11 @@
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>201902045</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -12493,6 +12678,11 @@
       </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2252</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -12604,6 +12794,11 @@
           <t>自2011年起，汉高集团在上海市化学工业区普工路36号F5 地块投资建设粘合剂技术生产基地（龙项目），龙项目目前已确定三期工程，一期工程于2011年启动——“年产29万吨工业胶粘剂和金属表面处理剂”，目前一期项目已完成环保验收；二期项目于2012年启动——“年产14万吨汽车、通用工业和民用胶粘剂”，目前二期一、二、三部分已完成环保验收，二期四、五、六、七部分处于试生产阶段。三期项目于2016年启动——“年产2万吨工业胶粘剂扩建项目 ”目前正处于试生产阶段。</t>
         </is>
       </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>1025</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -12713,6 +12908,11 @@
       <c r="X40" t="inlineStr">
         <is>
           <t>年生产龙头本体93万套，设计产能96万套。</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>1026</t>
         </is>
       </c>
     </row>
@@ -12816,6 +13016,11 @@
       <c r="X41" t="inlineStr">
         <is>
           <t>装配车间常日班，机加工车间3班倒</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>201902179</t>
         </is>
       </c>
     </row>
@@ -12889,6 +13094,11 @@
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>202002002</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -13000,6 +13210,11 @@
           <t>浩盟车料（上海）有限公司为生产自行车大齿盘的专业厂家，产品行销国内各大组车厂如捷安特、美丽达、喜德盛等及欧洲、美国等世界各国，产品有铁、铝合金产品，产品在行业内一直处于中高端，特别在热锻、温锻、冷锻工艺方面，在行业内一直处于领跑位置。公司现有热锻造设备、冷锻造设备、注塑机设备、热处理设备、表面处理如电泳、烤漆等及工模车间全套（车床，刨床，铣床，线切割机床，CNC）等设备。</t>
         </is>
       </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>1289</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -13111,6 +13326,11 @@
       </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>201902144</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -13214,6 +13434,11 @@
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>201902092</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -13317,6 +13542,11 @@
       </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>1290</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13416,6 +13646,11 @@
       </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13487,6 +13722,11 @@
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>202001016</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13596,6 +13836,11 @@
       <c r="X49" t="inlineStr">
         <is>
           <t>一期为BGA,TSOP,TCP芯片的封装及测试, 年产量6亿颗粒规模. 二期为金凸块生产制造, 年产量24万片规模.</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>1689</t>
         </is>
       </c>
     </row>
@@ -13699,6 +13944,11 @@
       <c r="X50" t="inlineStr">
         <is>
           <t>宏远发展（上海）有限公司位于星火开发区白沙路197号，成立于2006年11月。公司主要从事生产印染化纤布。企业占地面积88000平方米，内部共有建筑3幢，其中织布厂（框架结构、地上2层、建筑面积27588平方米，公司有废水排放口1个，锅炉排放口1个，雨水排放口一个，工艺废气排放口21个,粉尘排放口一个；2014年安装废水在线监测并于同年投入使用。2016年1月1日完成水煤浆锅炉改天然气锅炉并投入使用。</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>1293</t>
         </is>
       </c>
     </row>
@@ -13780,6 +14030,11 @@
       </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>1027</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13891,6 +14146,11 @@
           <t>花王（上海）化工有限公司成立于2012年4月16日，地处上海市金山第二工业区海金路345号，南临上海石化，毗邻抚佳、竹本、中轻日化等公司，由日本花王株式会社、花王（中国）投资有限公司按9：1比例共同投资建设，占地面积约124亩，项目预定年生产6万吨表面活性剂、助剂及300万根铸造用浇导管。工场于2015年5月7日举行竣工式。
 于2013年11月通过环评审批（沪环保许评【2013】622号）；并于2015年4月、6月获准试生产（沪环保许评【2015】198号）及延长（沪环保许评【2015】346号）。于2016年4月获得环保竣工验收批复（沪环保许评【2016】139号）。
 2018年4月24日通过二期环评审批（金环许【2018】179号），预计2019年底项目施工完成。</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>1690</t>
         </is>
       </c>
     </row>
@@ -13964,6 +14224,11 @@
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>202001027</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14073,6 +14338,11 @@
       <c r="X54" t="inlineStr">
         <is>
           <t>教育部直属高校，以教学、科研为主。</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2077</t>
         </is>
       </c>
     </row>
@@ -14146,6 +14416,11 @@
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>201902269</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14257,6 +14532,11 @@
           <t>项目位于上海市嘉定工业北区霜竹公路4450号6幢，主要从事电子零件、接插件、接触点线路板废料及边角料、电镀厂电镀废液、首饰厂的边角料的回收，从回收的废料中回收金、银等金属，生产能力680t／a。</t>
         </is>
       </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>1691</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14368,6 +14648,11 @@
           <t>原有EOD和精制两个车间，2017年7月起，EOD车间已停产。目前只有精制一个车间在生产。</t>
         </is>
       </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>1692</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14483,6 +14768,11 @@
           <t>华能上海石洞口第二电厂一期工程装机容量2*600MW，为二台超临界全进口机组,1992年投产发电，工程同步建设了电除尘装置和废水处理装置；2008年电厂完成了两台机组的脱硫改造工作；两台机组的脱硝改造分别于2012年底和2013年6月完成。2015年和2016年先后完成超低排放改造。电厂通过加强环保设施的运行，降低燃煤发电机组在发电过程中产生的烟尘、二氧化硫、氮氧化物、污水等污染物的排放，满足国家和地方环保排放标准的要求。</t>
         </is>
       </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14596,6 +14886,11 @@
       <c r="X59" t="inlineStr">
         <is>
           <t>华能上海石洞口第一电厂4×325MW发电机组于1988年-1990年相继建成投产，机组编号1#、2#、3#、4#，机组在发电过程中产生废气，废气中污染排放物主要有烟尘、二氧化硫、氮氧化物。与机组建设工程同步配套的烟气治理设施仅是三电场静电除尘器。 2003年至2008年，相继对1#-4#除尘器进行了改造，把原三电场电除尘器改为四电场电除尘器；2008年1#-4#机组脱硫建成投运；2009年至2011年1#-4#炉进行了贫改烟，同步实施了低氮燃烧改造；2013-2014年1#-4#机组脱硝建成投运。2017年四台机组相继完成超低排放改造。 电厂燃煤锅炉烟气经脱硝、除尘、脱硫处理后，由240m高烟囱向大气排放。</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -14705,6 +15000,11 @@
           <t>本厂为燃气蒸汽联合发电机组，使用清洁能源天然气作为燃料进行火力发电，生产情况主要根据上海电力调度中心及天然气管网的双重调控进行安排，无法准确填写生产周期情况。</t>
         </is>
       </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14818,6 +15118,11 @@
       <c r="X61" t="inlineStr">
         <is>
           <t>华能上海石洞口发电有限责任公司现有两台660MW发电机组，于2009年底投产。 对于燃煤发电机组生产过程中产生的污染物，电厂在投产时就同步建设了相应的控制及治理设施，近年又投入大量资金进行改造，以符合国家日益提高的环保标准的要求。 1、 废水处理系统电厂在投产时，同步建设了完善的工业污水处理系统和生活污水处理系统，使机组运行中产生的污水分类收集分类处理。电厂产生的所有废水均回用至电厂用户。 2、 烟尘处理系统电厂燃煤锅炉烟气除尘采用高效率的静电除尘器结合210m高烟囱排放，除尘效率在99.8％以上，排放浓度低于10mg/Nm3。 3、 脱硫系统电厂脱硫系统采用石灰石--石膏湿法脱硫工艺，按燃煤含硫量1.3％设计,脱硫吸收塔选用一炉一塔的方式，同时配套安装烟气在线监测设备。目前两台机组均已完成取消脱硫旁路烟道改造。 4、 脱硝系统电厂脱硝系统由锅炉低氮燃烧系统和选择性催化还原脱硝系统组成，脱硝效率按80％设计。 5、2016年两台机组先后完成环保超低排放改造。</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -14891,6 +15196,11 @@
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>202004005</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14994,6 +15304,11 @@
       </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -15097,6 +15412,11 @@
       </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>201902080</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -15200,6 +15520,11 @@
       </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>1117</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15312,6 +15637,11 @@
           <t>公司产品为汽车灯具的设计生产及销售，主要为大众和通用配套车灯产品</t>
         </is>
       </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>1913</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15427,6 +15757,11 @@
           <t>本企业成立于2003年1月，目前为外商独资企业。公司位于上海市浦东新区张江工业园区张东路1558号，占地面积41000m2，主要产品为无线及网络产品、存储系统及电脑产品、车用电子产品，年产量约为269000kpcs。</t>
         </is>
       </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>1296</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15530,6 +15865,11 @@
       </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>201902180</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15633,6 +15973,11 @@
       </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>201902295</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15740,6 +16085,11 @@
       </c>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>201902293</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15851,6 +16201,11 @@
           <t>主要工艺：橡胶成型、注塑成型、涂装、印刷、烘干、组装等。主要产品：电子产品附件，汽车面板及按键、导热材料。</t>
         </is>
       </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>1655</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15962,6 +16317,11 @@
           <t>提供重金属污泥、废酸、废碱综合利用，废乳化液处理处置，废矿物油综合利用，废包装桶清洗等服务。</t>
         </is>
       </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>1694</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16077,6 +16437,11 @@
           <t>目前，公司主要从事糖类等农作物优质高产新品种技术的开发及其深加工 ，为箭牌公司亚太区工厂提供胶姆糖基础剂，同事生产瓶装口香糖和瓶装薄荷糖。</t>
         </is>
       </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>1029</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16186,6 +16551,11 @@
       <c r="X74" t="inlineStr">
         <is>
           <t>捷敏电子（上海）有限公司成立于1998年12月,占地一万八千多平方米.4幢主建筑物,主要从事半导体元器件的封装和测试.现正常生产状态。</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>1298</t>
         </is>
       </c>
     </row>
@@ -16293,6 +16663,11 @@
       <c r="X75" t="inlineStr">
         <is>
           <t>主要从事电子电路板、医疗设备的生产和组装及医疗检测仪器的维修</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>1299</t>
         </is>
       </c>
     </row>
@@ -16366,6 +16741,11 @@
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>201902181</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16481,6 +16861,11 @@
           <t>金井特线工业（上海）有限公司由3家日本公司（即特线工业株式会社、株式会社神户钢所和株式会社METAL ONE）投资建设，于2003年10月注册成立，位于金山工业区亭卫公路3001号。专业生产汽车轮胎钢帘线和太阳能硅晶片切割用线。厂区总占地面积170795㎡，总建筑面积73174.5㎡。员工总人数约300人。公司已通过ISO9001、ISO14001、TS16949等质量、环境、汽车行业标准体系的认证。</t>
         </is>
       </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16596,6 +16981,11 @@
           <t>年生产能力1750吨优质缝纫线，2018年度实际产量1544吨。</t>
         </is>
       </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>201902302</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16699,6 +17089,11 @@
       </c>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>201902093</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -16798,6 +17193,11 @@
       </c>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>2060</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -16905,6 +17305,11 @@
           <t>公司主要从事CG01（帕金森病和高催乳素血症药物）和CG02（冠心病药物）的药物生产。按照《国民经济行业分类》（GB／T 4754—2011），属于化学药品原料药制造（代码：C2710）</t>
         </is>
       </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17008,6 +17413,11 @@
       </c>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>201902094</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17107,6 +17517,11 @@
       </c>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>1696</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17206,6 +17621,11 @@
       </c>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -17315,6 +17735,11 @@
       <c r="X85" t="inlineStr">
         <is>
           <t>科思创是全球最大的聚合物生产公司之一，其2016年度销售额达到119亿欧元。其业务范围主要集中在高科技聚合物材料的生产制造及用于诸多日常生活领域的创新性解决方案的研发。主要服务行业涵盖汽车、建筑、木材加工和家具、电气和电子、体育休闲、化妆品、医疗以及化工行业本身。科思创前身为拜耳材料科技，截至2016年底，在全球拥有30家生产基地、约15600位员工（按全职员工计算）。科思创上海一体化基地座落于在上海化学工业区内，占地1.5平方公里，是科思创在德国境外最大的投资项目。作为科思创在亚太地区最重要的生产基地之一，多个世界级的工厂凭借一体化设计理念及其优化产能，生产聚碳酸酯、聚氨酯原材料和聚氨酯涂料原材料。这些产品被广泛地使用在汽车、建筑、电子、木器与家具、化工原料和其他领域。通过采用创新工艺和一流技术，科思创上海一体化基地致力于可持续经营，将环境保护和责任关怀融入我们的产品和生产流程中。在降低能耗并减少运营成本的同时，有效控制和减少二氧化碳排放。至2017年，科思创上海一体化基地预计总投资将超过30亿欧元。</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -17416,6 +17841,11 @@
       </c>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -17520,6 +17950,11 @@
       </c>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>1699</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -17629,6 +18064,11 @@
       <c r="X88" t="inlineStr">
         <is>
           <t>公司占地面积21973平方米，主要生产和销售镍基、钴基、铁基等耐磨、耐腐蚀、耐高温的硬面焊接材料和制品</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>2059</t>
         </is>
       </c>
     </row>
@@ -17730,6 +18170,11 @@
       </c>
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -17842,6 +18287,11 @@
        库夫纳纺织品制造（上海）有限公司是德国Kufner集团全资子公司. 自1862年开始，专门从事高级面辅料/衬布生产, 在150年历史中,Kufner集团生产的高级产品被各国众多著名服装品牌采用,如Armani、Hugo Boss、Marks ＆ Spencer等等. 其中原因不只是因为Kufner集团生产质量优良可靠,更重要的是Kufner集团150年专心从事生产,技术领先各同行,并紧随服装生产潮流变化,开研技术,创新产品,至今已拥有过百专利证书.</t>
         </is>
       </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -17951,6 +18401,11 @@
       <c r="X91" t="inlineStr">
         <is>
           <t>葵和精密电子（上海）有限公司主要从事半导体元器件制造，从业人员约1100人</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>1302</t>
         </is>
       </c>
     </row>
@@ -18052,6 +18507,11 @@
       </c>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>1702</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -18163,6 +18623,11 @@
           <t>工厂有合成和配制生产车间，有罐区和仓储设施。主要合成产品包括地昔尼尔、环丙氨嗪、磺胺氯哒嗪钠、磺胺氯吡嗪钠等。</t>
         </is>
       </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>1704</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -18276,6 +18741,11 @@
       <c r="X94" t="inlineStr">
         <is>
           <t>SMT全自动生产线：以自动生产、智能物流系统，智能化生产管理为核心</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>201902081</t>
         </is>
       </c>
     </row>
@@ -18377,6 +18847,11 @@
       </c>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>1032</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -18484,6 +18959,11 @@
       </c>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>201902095</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -18587,6 +19067,11 @@
       </c>
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>1033</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -18690,6 +19175,11 @@
           <t>联合利华食品（中国）有限公司，是外资跨国企业联合利华的独资企业，位于金山区亭卫公路1068号。于1998年8月开始运作。占地30198平方米。主要生产家乐牌调味品。</t>
         </is>
       </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>1305</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -18797,6 +19287,11 @@
       </c>
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>201902096</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -18896,6 +19391,11 @@
       </c>
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>201902182</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -19007,6 +19507,11 @@
           <t>公司秉承“靠人才、抓管理；上质量、创铭牌；取信天下、跃居群雄”的治企方针，凭借强大的技术研发实力和精良的设施装备，自主开发和制造了具有核心竞争力的60余款200余种型号的装载机；2015年、2016年先后还被上海市松江区评为“高新技术企业”和“制造业50强”；公司目前的主要产品有3T、5T、6T三大系列装载机产品。</t>
         </is>
       </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>1708</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -19117,6 +19622,11 @@
         <is>
           <t>龙工（上海）精工液压有限公司是中国龙工发展控股有限公司的全资子公司，位于上海市松江工业园区内的龙工工业园区南区，总建筑面积17646.64m2。于2001年9月成立，原生产驱动桥总成、自动变速箱产品。2011年，因总公司对本公司提出新的战略发展计划，扩建为更具价值的液压元件项目，同时，公司经营范围变更为：生产驱动桥总成、自动变速箱、液压元件，销售公司自产产品。预计年生产液压元件15000台套。现公司员工为320人，两班倒，年工作日为300天。
 公司设备精良、工艺先进、管理优化、质量稳定、服务完善，从2009年开始公司先后通过GB/T19001质量管理体系认证、国家军用标准GJB9001B和GB/T24001环境管理体系及GB/T28001职业健康安全管理体系认证</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>1709</t>
         </is>
       </c>
     </row>
@@ -19234,6 +19744,11 @@
 公司设备精良、工艺先进、管理优化、质量稳定、服务完善，从2009年开始公司先后通过GB/T19001质量管理体系认证、国家军用标准GJB9001B和GB/T24001环境管理体系及GB/T28001职业健康安全管理体系认证。</t>
         </is>
       </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -19341,6 +19856,11 @@
           <t>正常</t>
         </is>
       </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -19448,6 +19968,11 @@
       </c>
       <c r="W105" t="inlineStr"/>
       <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>201902183</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -19560,6 +20085,11 @@
     其它项目：公司在2012年进行PCG车间危险品仓库、PCG1四楼喷漆实验室建设，2013年进行燃料油改气项目，PCG1 三楼实验室改造项目，均已通过竣工验收。</t>
         </is>
       </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>1712</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -19669,6 +20199,11 @@
       <c r="X107" t="inlineStr">
         <is>
           <t>本公司租赁上海欣梅工业发展有限公司联曹路260号厂区（以下简称“欣梅工业厂区”）A栋、B1、G栋栋厂房，租赁建筑面积总计为9525.24m2，主要生产阀门执行器（系列）4.5万台／年、齿轮箱（系列）30万台／年。</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>1713</t>
         </is>
       </c>
     </row>
@@ -19770,6 +20305,11 @@
       </c>
       <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -19869,6 +20409,11 @@
       </c>
       <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>201902097</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -19964,6 +20509,11 @@
       <c r="V110" t="inlineStr"/>
       <c r="W110" t="inlineStr"/>
       <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>201902072</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -20035,6 +20585,11 @@
       <c r="V111" t="inlineStr"/>
       <c r="W111" t="inlineStr"/>
       <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>202001023</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -20138,6 +20693,11 @@
       </c>
       <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -20247,6 +20807,11 @@
       <c r="X113" t="inlineStr">
         <is>
           <t>茂英电子（上海）有限公司是由日本常木镀金工业株式会社在华投资建立的全资子公司。常木镀金工业株式会社成立于1952年10月，主要从事精密电子产品的金属表面的处理和加工（镀金、镀银、镀镍等）。</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>1307</t>
         </is>
       </c>
     </row>
@@ -20320,6 +20885,11 @@
       <c r="V114" t="inlineStr"/>
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>202004006</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -20427,6 +20997,11 @@
           <t>国家级梅山猪保种场，良种猪保种的培育</t>
         </is>
       </c>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>2095</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -20536,6 +21111,11 @@
       <c r="X116" t="inlineStr">
         <is>
           <t>本公司主要生产内外销商场设备，淡旺季较明显，正常情况上半年较淡。</t>
+        </is>
+      </c>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>1308</t>
         </is>
       </c>
     </row>
@@ -20647,6 +21227,11 @@
 工厂生产工业相对简单，原物料经过人工投料、机械分散、产品检测等过程最后灌装为成品待售。生产所用主要原料有树脂、各类溶剂（如二甲苯、乙酸丁酯等）和添加辅料。整个生产流程属于常温常压物理过程，无化学和高温／高压反应。</t>
         </is>
       </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>1717</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -20746,6 +21331,11 @@
       </c>
       <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>1037</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -20861,6 +21451,11 @@
           <t>研发、生产压敏胶带、离型膜、汽车黑膜、窗膜、保护膜、光学胶膜、粘胶剂材料，销售自产产品，提供相关产品的维护、保养、咨询、技术检测、技术支持与售后服务。
 依照《部令第3号-工矿用地土壤环境管理办法（试行）》要求，3M公司于2019年3月委托上海锐浦环境技术发展有限公司开展了土壤和地下水环境现状调查，特此公示。
 公司被列为上海市经信委，市环保局2017年度第二批重点企业清洁生产审核单位，目前公司已委托上海化工环境保护监测站开展此项工作。</t>
+        </is>
+      </c>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>1038</t>
         </is>
       </c>
     </row>
@@ -20934,6 +21529,11 @@
       <c r="V120" t="inlineStr"/>
       <c r="W120" t="inlineStr"/>
       <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>202001045</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -21045,6 +21645,11 @@
       </c>
       <c r="W121" t="inlineStr"/>
       <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>201902098</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -21156,6 +21761,11 @@
       </c>
       <c r="W122" t="inlineStr"/>
       <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -21255,6 +21865,11 @@
       </c>
       <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -21354,6 +21969,11 @@
       </c>
       <c r="W124" t="inlineStr"/>
       <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -21465,6 +22085,11 @@
           <t>公司的总占地面积为40681平方米，其中第一期厂房建筑面积为16370平方米，第二期厂房于2002年8月建成，建筑面积为11080平方米。一次性注射针、真空采血管、尿袋等医疗器械的生产和销售情况良好，能满足国内外市场的要求。</t>
         </is>
       </c>
+      <c r="Y125" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -21570,6 +22195,11 @@
       <c r="X126" t="inlineStr">
         <is>
           <t>尼西半导体科技（上海）有限公司主要经营半导体集成电路制造,从业人员约600人</t>
+        </is>
+      </c>
+      <c r="Y126" t="inlineStr">
+        <is>
+          <t>1312</t>
         </is>
       </c>
     </row>
@@ -21643,6 +22273,11 @@
       <c r="V127" t="inlineStr"/>
       <c r="W127" t="inlineStr"/>
       <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr">
+        <is>
+          <t>202004007</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -21750,6 +22385,11 @@
       </c>
       <c r="W128" t="inlineStr"/>
       <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr">
+        <is>
+          <t>201902099</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -21853,6 +22493,11 @@
       </c>
       <c r="W129" t="inlineStr"/>
       <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr">
+        <is>
+          <t>1039</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -21956,6 +22601,11 @@
       </c>
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr">
+        <is>
+          <t>1723</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -22027,6 +22677,11 @@
       <c r="V131" t="inlineStr"/>
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr">
+        <is>
+          <t>202001029</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -22132,6 +22787,11 @@
 公司每年制定环境目标，1）完成废水废气噪声监测，并确保达标排放；2）完成LDAR检测，针对泄漏点及时修复；3）完善危废台帐、污染治理设施运行台帐等环保台帐，并归档保存；4）制定能源减量化和废物减量化措施，实现节能减排</t>
         </is>
       </c>
+      <c r="Y132" t="inlineStr">
+        <is>
+          <t>1724</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -22231,6 +22891,11 @@
       </c>
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -22330,6 +22995,11 @@
       </c>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr">
+        <is>
+          <t>201902207</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -22439,6 +23109,11 @@
       <c r="X135" t="inlineStr">
         <is>
           <t>正常生产</t>
+        </is>
+      </c>
+      <c r="Y135" t="inlineStr">
+        <is>
+          <t>2058</t>
         </is>
       </c>
     </row>
@@ -22512,6 +23187,11 @@
       <c r="V136" t="inlineStr"/>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr">
+        <is>
+          <t>202004008</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -22611,6 +23291,11 @@
       </c>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr">
+        <is>
+          <t>202001003</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -22714,6 +23399,11 @@
       </c>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -22817,6 +23507,11 @@
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr">
+        <is>
+          <t>1315</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -22920,6 +23615,11 @@
       </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -23031,6 +23731,11 @@
           <t>公司有加工车间、焊接车间、涂装车间、组立车间以及配电房空压机站等附属功能区组成，产品产量重量训练器材6.6万台、跑步机训练器材8.6万台、脚踏车训练器材4.5万台，产品主要外销。</t>
         </is>
       </c>
+      <c r="Y141" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -23134,6 +23839,11 @@
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr">
+        <is>
+          <t>1317</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -23247,6 +23957,11 @@
       <c r="X143" t="inlineStr">
         <is>
           <t>青岛啤酒上海闵行有限公司位于上海市闵行区沈杜公路1739号，企业主要生产啤酒（罐装、听装和桶装），企业年设计最大生产规模为20万吨，现有产能可达15.2万吨／年。公司现有员工475人。全厂排水采取雨、污分流制，厂内设污水处理站，废水治理设施处理能力4000吨／日，集中收集全厂生活污水和生产废水一并纳入污水处理站，经治理达标后纳入市政污水管网，最终至白龙港污水处理厂集中处理达标排放</t>
+        </is>
+      </c>
+      <c r="Y143" t="inlineStr">
+        <is>
+          <t>1318</t>
         </is>
       </c>
     </row>
@@ -23352,6 +24067,11 @@
       </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -23423,6 +24143,11 @@
       <c r="V145" t="inlineStr"/>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>202001036</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -23534,6 +24259,11 @@
           <t>主要生产表面处理添加剂，年产量约9000吨，生产流程大致为：投料—搅拌—检验—灌装</t>
         </is>
       </c>
+      <c r="Y146" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -23637,6 +24367,11 @@
       </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr">
+        <is>
+          <t>1727</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -23752,6 +24487,11 @@
           <t>日铭电脑配件（上海）有限公司成立于2011年4月6日，位于上海市金山区亭林工业区内，生产产品主要为3C外观件，凭着优异的质量和高效的生产能力屹立于行业的前端。</t>
         </is>
       </c>
+      <c r="Y148" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -23867,6 +24607,11 @@
           <t>本企业为外商独资企业，项目位于嘉定工业区兴荣路1033号，主要从事五金零件及相关配件、模具的生产。</t>
         </is>
       </c>
+      <c r="Y149" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -23978,6 +24723,11 @@
           <t>日沛电脑配件（上海）有限公司成立于2014年，生产产品主要为3C外观件，凭着优异的质量和高效的生产能力屹立于行业的前端。</t>
         </is>
       </c>
+      <c r="Y150" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -24093,6 +24843,11 @@
           <t>开发生产汽车高强度紧固件，销售公司自产产品等，年产量达到3万吨，目前生产情况稳定。</t>
         </is>
       </c>
+      <c r="Y151" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -24209,6 +24964,11 @@
 日腾目前正处于搬迁状态，预计2020.6月左右将全部搬迁至嘉善公司</t>
         </is>
       </c>
+      <c r="Y152" t="inlineStr">
+        <is>
+          <t>201902184</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -24323,6 +25083,11 @@
         <is>
           <t>企业名称：日月光半导体（上海）有限公司企业地址：上海市浦东新区金科路2300号
 主要产品：印刷电路板</t>
+        </is>
+      </c>
+      <c r="Y153" t="inlineStr">
+        <is>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -24435,6 +25200,11 @@
           <t>企业名称：日月光封装测试（上海）有限公司  
 企业地址：上海市浦东新区郭守敬路669号 
 主要产品：芯片</t>
+        </is>
+      </c>
+      <c r="Y154" t="inlineStr">
+        <is>
+          <t>1322</t>
         </is>
       </c>
     </row>
@@ -24540,6 +25310,11 @@
       </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr">
+        <is>
+          <t>201902185</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -24655,6 +25430,11 @@
           <t>投资公司：三井高科技亚洲统括总公司和三井高科技（马来西亚）股份有限公司地理位置：公司位于金桥出口加工区新金桥路2001号成立时间：1996年3月26日。投资总额：6，250万美元注册资本：3，000万美元，占地面积：33，063平方米。经营范围：主要生产和经营集成电路引线框架、各类控制电机铁芯、高精度精密模具以及电子元器件等。生产设备：公司拥有高速冲床、高精密电镀/TDC生产线、高效废水、废气处理设施、三D画像测定仪、工具显微镜、焦点深度计、投影仪、ICP分析仪等检验设备。业务范围：产品主要销往国内的外资企业、国内企业及出口海外。公司提出就近为顾客提供服务的企业方针，并把持续改进作为公司努力的方向。</t>
         </is>
       </c>
+      <c r="Y156" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -24768,6 +25548,11 @@
       <c r="X157" t="inlineStr">
         <is>
           <t>目前有三条生产线，其中2条为多功能膜原料生产线，还有1条为改性乙丙橡胶生产线。</t>
+        </is>
+      </c>
+      <c r="Y157" t="inlineStr">
+        <is>
+          <t>201902145</t>
         </is>
       </c>
     </row>
@@ -24869,6 +25654,11 @@
       </c>
       <c r="W158" t="inlineStr"/>
       <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr">
+        <is>
+          <t>1736</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -24977,6 +25767,11 @@
 公司采用自主开发的光气化界面缩聚技术生产聚碳酸酯（PC），是一种性能优良的热塑性工程塑料，广泛地应用于电子信息、汽车制造、航天航空、国防军工、医疗器械等领域，现有员工290余人，生产能力8.2万吨/年。</t>
         </is>
       </c>
+      <c r="Y159" t="inlineStr">
+        <is>
+          <t>1042</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -25088,6 +25883,11 @@
           <t>桑迪亚医药技术（上海）有限责任公司（法拉第路）新药研发平台，仅从事小剂量（100克以下）的实验活动，通过设计合理的实验流程得到客户所需的化合物，为其提供医药研发服务，实验过程均在实验室的玻璃容器中进行，主要进行新药的研究与开发，并提供研发过程中的相关数据及服务，无固定产品，实验频次大约为每天400次，不属于生产性、中试及以上规模的研发机构。</t>
         </is>
       </c>
+      <c r="Y160" t="inlineStr">
+        <is>
+          <t>201904072</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -25199,6 +25999,11 @@
           <t>桑迪亚医药技术（上海）有限责任公司（伽利略路）主要从事治疗糖尿病、肿瘤、心血管等新药的研发，并提供研发过程中的相关数据及服务，无固定产品。实验规模为小剂量（100克以下）的实验活动，通过设计合理的实验流程得到客户所需的化合物，实验过程均在实验室的玻璃容器中进行。相关实验室主要为一般化学实验室、一级生物实验室、动物房等。不属于生产性、中试及以上规模的研发机构。</t>
         </is>
       </c>
+      <c r="Y161" t="inlineStr">
+        <is>
+          <t>201904071</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -25306,6 +26111,11 @@
       </c>
       <c r="W162" t="inlineStr"/>
       <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr">
+        <is>
+          <t>1737</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -25377,6 +26187,11 @@
       <c r="V163" t="inlineStr"/>
       <c r="W163" t="inlineStr"/>
       <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr">
+        <is>
+          <t>202002003</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -25476,6 +26291,11 @@
       </c>
       <c r="W164" t="inlineStr"/>
       <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr">
+        <is>
+          <t>201902101</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -25583,6 +26403,11 @@
           <t>棚舍32个， 总面积16700,平方，年出栏量50万羽</t>
         </is>
       </c>
+      <c r="Y165" t="inlineStr">
+        <is>
+          <t>2086</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -25692,6 +26517,11 @@
       <c r="X166" t="inlineStr">
         <is>
           <t>主要从事地铁车辆的新造、维修。污染最大的工艺是车体涂装环节。</t>
+        </is>
+      </c>
+      <c r="Y166" t="inlineStr">
+        <is>
+          <t>201902052</t>
         </is>
       </c>
     </row>
@@ -25789,6 +26619,11 @@
       </c>
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr">
+        <is>
+          <t>202004009</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -25900,6 +26735,11 @@
       </c>
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -25995,6 +26835,11 @@
       <c r="V169" t="inlineStr"/>
       <c r="W169" t="inlineStr"/>
       <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr">
+        <is>
+          <t>201902186</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -26106,6 +26951,11 @@
       </c>
       <c r="W170" t="inlineStr"/>
       <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr">
+        <is>
+          <t>201902063</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -26211,6 +27061,11 @@
       <c r="X171" t="inlineStr">
         <is>
           <t>上海爱森肉食品有限公司，是光明（食品）集团下属的种养加销一体化的专业化、现代化的猪肉食品生产企业。公司下属屠宰加工厂占地5.1万平方米，配置日处理850吨的污水处理系统一套，具有年屠宰加工50万头生猪生产能力及配套冷链系统。</t>
+        </is>
+      </c>
+      <c r="Y171" t="inlineStr">
+        <is>
+          <t>1324</t>
         </is>
       </c>
     </row>
@@ -26284,6 +27139,11 @@
       <c r="V172" t="inlineStr"/>
       <c r="W172" t="inlineStr"/>
       <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr">
+        <is>
+          <t>201904075</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -26401,6 +27261,11 @@
 我们公司的尼龙生产环节采用了台湾生产的连续扎染设备，所需的酸性染料和助剂也采用了美国亨斯曼公司的环保产品，从2015年开始，在2002年实行的工艺上，汽蒸箱温度从110度降到100度，机速从10米／分钟增加到13米／分钟，织带经过染料槽上色5秒左右后进入汽蒸箱100±10度蒸汽加热上色5分钟左右，压力为4KG，再进入水洗槽70±10度水洗6分钟左右，最后进入烘筒100度±10烘干5分钟左右出产品，全程都由设备一键式电脑操作控制，过程中产生的清洗污水都由专用管道排放到调节池进行处理，尼龙染色机共有两台，一台为专用整烫无染色，生产时间为每天8小时，一台为整烫加染色，生产时间为每天16小时，两台机器平均每天的用水量为10吨。</t>
         </is>
       </c>
+      <c r="Y173" t="inlineStr">
+        <is>
+          <t>201902281</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -26508,6 +27373,11 @@
       </c>
       <c r="W174" t="inlineStr"/>
       <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr">
+        <is>
+          <t>1326</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -26621,6 +27491,11 @@
       <c r="X175" t="inlineStr">
         <is>
           <t>中美合资高新技术企业上海安美特铝业有限公司在预阳极氧化行业 拥有近20年的生产经验，公司专业生产阳极氧化铝卷材，是全球仅有的几家拥有连续卷材预氧化生产线的厂家之一。设计阳极氧化铝卷材生产能力15000t／y，实际阳极氧化铝卷材2019年生产4000t／y。</t>
+        </is>
+      </c>
+      <c r="Y175" t="inlineStr">
+        <is>
+          <t>1327</t>
         </is>
       </c>
     </row>
@@ -26694,6 +27569,11 @@
       <c r="V176" t="inlineStr"/>
       <c r="W176" t="inlineStr"/>
       <c r="X176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr">
+        <is>
+          <t>201902275</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -26801,6 +27681,11 @@
           <t>上海安泰金属表面处理有限公司于2004年5月成立，位于上海市嘉定区外冈镇西冈身路111号（位于外冈工业园区内），占地面积约16184平方米，总建筑面积约9865平方米，厂内共建有12条电镀生产线，从事金属制品、水暖五金件、交通运输设备零部件及配件等电镀加工，设计年电镀生产能力267.1万平方米，实际年电镀生产能力258.1万平方米。厂内共有职工200人，采用2班制工作，年工作300天。</t>
         </is>
       </c>
+      <c r="Y177" t="inlineStr">
+        <is>
+          <t>1328</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -26914,6 +27799,11 @@
 污水处理工艺采用AA0＋高效混凝沉淀＋转盘滤布过滤，排放标准执行GB18918-2002一级A排放标准。</t>
         </is>
       </c>
+      <c r="Y178" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -27021,6 +27911,11 @@
           <t>上海昂博生物技术有限公司于2007年5月28日在上海市工商局登记成立。法定代表人JUNCAI BAI，公司经营范围包括生产多肽生物产品，保护氨基酸及相关医药中间体等。</t>
         </is>
       </c>
+      <c r="Y179" t="inlineStr">
+        <is>
+          <t>201902209</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -27128,6 +28023,11 @@
       </c>
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr">
+        <is>
+          <t>2057</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -27239,6 +28139,11 @@
           <t>于 2013 年 1 月 完成一期项目建设并投产。于 2014 年 10 月建成二期扩建项目并投产。主要产品为新型表面活性剂，专用于洗发水、洗涤剂及牙膏等日用化学品制造行业。其中生产的主要产品为十二烷基硫酸钠、十二烷基醇醚硫酸钠及十二烷基苯磺酸三大类产品，产能分别为0~6万吨／年。目前有三套生产装置。</t>
         </is>
       </c>
+      <c r="Y181" t="inlineStr">
+        <is>
+          <t>201902146</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -27346,6 +28251,11 @@
       </c>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr">
+        <is>
+          <t>1046</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -27459,6 +28369,11 @@
       <c r="X183" t="inlineStr">
         <is>
           <t>上海巴斯夫聚氨酯有限公司，位于上海化学工业区楚华路25号，占地面积22.5万平方米，产品为甲苯二异氰酸酯（TDI）和二苯基甲烷二异氰酸酯（MDI）。公司生产性废水包括有机废水（工艺废水、地面冲洗水、受污染的初期雨水等）和无机废水（循环冷却水）两部分。有机废水送化工区中法水务处理有限公司处置，无机废水为洁净水，汇总至化工区排海管道后由中法水务统一排放。公司现有在线监测设备3套，分别是无机废水排口PH、无机废水排口TOC及无机废水排口流量值。在线监测设施于2013年9月17日通过上海市环保局的自动监控设备验收。</t>
+        </is>
+      </c>
+      <c r="Y183" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -27574,6 +28489,11 @@
 2016年10月以后，上海百洛达金属有限公司陆续变更了公司注册地，经营范围，法人和股东。详见现行营业执照。</t>
         </is>
       </c>
+      <c r="Y184" t="inlineStr">
+        <is>
+          <t>1745</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -27673,6 +28593,11 @@
       </c>
       <c r="W185" t="inlineStr"/>
       <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr">
+        <is>
+          <t>1331</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -27786,6 +28711,11 @@
       <c r="X186" t="inlineStr">
         <is>
           <t>本公司是一家生产优质冷拉弹簧钢丝；油淬火-回火钢丝；异型钢丝及履带丝绳的专业生产型厂家，年产分别为25000吨、700吨，生产负荷100％。</t>
+        </is>
+      </c>
+      <c r="Y186" t="inlineStr">
+        <is>
+          <t>201902079</t>
         </is>
       </c>
     </row>
@@ -27859,6 +28789,11 @@
       <c r="V187" t="inlineStr"/>
       <c r="W187" t="inlineStr"/>
       <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr">
+        <is>
+          <t>202001037</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -27968,6 +28903,11 @@
       <c r="X188" t="inlineStr">
         <is>
           <t>上海半图油库有限公司是一家从事汽油、柴油装卸和储存的专业仓储企业，现有储油罐6个共计7400m³,发车平台一座，500吨级码头一座，作业方式船进车出。</t>
+        </is>
+      </c>
+      <c r="Y188" t="inlineStr">
+        <is>
+          <t>201902071</t>
         </is>
       </c>
     </row>
@@ -28069,6 +29009,11 @@
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr">
+        <is>
+          <t>201902147</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -28176,6 +29121,11 @@
       </c>
       <c r="W190" t="inlineStr"/>
       <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr">
+        <is>
+          <t>1047</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -28279,6 +29229,11 @@
       </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -28382,6 +29337,11 @@
       <c r="V192" t="inlineStr"/>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr">
+        <is>
+          <t>201904069</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -28489,6 +29449,11 @@
           <t>宝钢车轮是给大众、通用、上汽等整车企业配套汽车钢制车轮的企业，年产量为370万只。</t>
         </is>
       </c>
+      <c r="Y193" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -28598,6 +29563,11 @@
       <c r="X194" t="inlineStr">
         <is>
           <t>根据危废收集许可文件，开展宝山区中小企业危险废物收集贮存转运工作</t>
+        </is>
+      </c>
+      <c r="Y194" t="inlineStr">
+        <is>
+          <t>201904068</t>
         </is>
       </c>
     </row>
@@ -28703,6 +29673,11 @@
           <t>2018年1月1日起，电镀污水实施零排放，原电镀污水排口封堵，不再排放含镍的生产污水。</t>
         </is>
       </c>
+      <c r="Y195" t="inlineStr">
+        <is>
+          <t>1333</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -28810,6 +29785,11 @@
       </c>
       <c r="W196" t="inlineStr"/>
       <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -28921,6 +29901,11 @@
           <t>从事宝钢高炉矿渣微粉的生产及技术服务，现有1条产线，年设计产能共计50万吨。</t>
         </is>
       </c>
+      <c r="Y197" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -29028,6 +30013,11 @@
       </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -29139,6 +30129,11 @@
           <t>热轧钢卷先进行纵剪后酸洗、剪切</t>
         </is>
       </c>
+      <c r="Y199" t="inlineStr">
+        <is>
+          <t>1749</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -29242,6 +30237,11 @@
       </c>
       <c r="W200" t="inlineStr"/>
       <c r="X200" t="inlineStr"/>
+      <c r="Y200" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -29353,6 +30353,11 @@
           <t>从事宝钢高炉矿渣微粉的生产及技术服务，现有3条产线，年设计产能共计150万吨。</t>
         </is>
       </c>
+      <c r="Y201" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -29460,6 +30465,11 @@
           <t>设计、生产、销售铝制二片式易拉罐及其他相关产品、提供相关服务；金属材料销售；包装印刷；从事货物及技术的进出口业务；在金属包装相关科技领域内从事技术开发、技术转让、技术服务、技术咨询。</t>
         </is>
       </c>
+      <c r="Y202" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -29569,6 +30579,11 @@
       <c r="X203" t="inlineStr">
         <is>
           <t>本公司主要生产各种规格的低碳钢镀锌铁丝产品。</t>
+        </is>
+      </c>
+      <c r="Y203" t="inlineStr">
+        <is>
+          <t>1334</t>
         </is>
       </c>
     </row>
@@ -29686,6 +30701,11 @@
           <t>本公司现有4条生产线，主要生产改性尼龙、聚碳酸酯，聚丙烯系列。
 年产量约800吨。
 目前劳动用工总人数 16人。</t>
+        </is>
+      </c>
+      <c r="Y204" t="inlineStr">
+        <is>
+          <t>201902292</t>
         </is>
       </c>
     </row>
@@ -29759,6 +30779,11 @@
       <c r="V205" t="inlineStr"/>
       <c r="W205" t="inlineStr"/>
       <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr">
+        <is>
+          <t>201902148</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -29868,6 +30893,11 @@
       <c r="X206" t="inlineStr">
         <is>
           <t>上海北芳危险品物流有限公司（以下简称“北芳公司”）成立于 2010 年 2 月，是上海北芳储运集团有限公司旗下具有中国领先地位的专业化工物流服务供应商, 北芳公司租赁上海和叶实业有限公司位于上海市金山区浦卫公路 10359 号的仓库（包括 4 座甲类仓库、7 座乙类仓库和 1 座丙类仓库）开展危险化学品仓储运输等物流业务。</t>
+        </is>
+      </c>
+      <c r="Y206" t="inlineStr">
+        <is>
+          <t>1212</t>
         </is>
       </c>
     </row>
@@ -29983,6 +31013,11 @@
 公司主要生产洁净海洋区域里的海藻提取物，作为食品添加剂的增稠剂，产品为卡拉胶及其复配产品等产品。主要适用于产品果冻、肉制品、糕类、医药、饮料等产品中。</t>
         </is>
       </c>
+      <c r="Y207" t="inlineStr">
+        <is>
+          <t>A51752BC592846DA862D4B796B45C23D</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -30086,6 +31121,11 @@
       </c>
       <c r="W208" t="inlineStr"/>
       <c r="X208" t="inlineStr"/>
+      <c r="Y208" t="inlineStr">
+        <is>
+          <t>201902077</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -30197,6 +31237,11 @@
       </c>
       <c r="W209" t="inlineStr"/>
       <c r="X209" t="inlineStr"/>
+      <c r="Y209" t="inlineStr">
+        <is>
+          <t>201902082</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -30268,6 +31313,11 @@
       <c r="V210" t="inlineStr"/>
       <c r="W210" t="inlineStr"/>
       <c r="X210" t="inlineStr"/>
+      <c r="Y210" t="inlineStr">
+        <is>
+          <t>201903003</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -30375,6 +31425,11 @@
       </c>
       <c r="W211" t="inlineStr"/>
       <c r="X211" t="inlineStr"/>
+      <c r="Y211" t="inlineStr">
+        <is>
+          <t>1335</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -30487,6 +31542,11 @@
 公司拥有现代化的标准厂房，良好的生产环境和先进的生产设备。公司获得国家颁发的食品A级QS准产证和出口食品卫生注册证，并通过HACCP和ISO22000食品安全管理体系认证。公司更拥有一大批优秀资深的专业管理人才和技术人员，注重研发和品控，坚持“诚信立业，打造品牌”之目标，致力于将“避风塘”餐馆的特色精华以及崇尚美味健康的现代饮食理念推向市场。目前“避风塘”产品已进入家乐福、乐购、欧尚、大润发、易初莲花、易买得、世纪联华、吉买盛各大卖场和农工商、联华、伍缘等连锁超市。“避风塘”将其在餐馆的卓绝奉献加以延续发扬，将“避风塘”餐馆最精粹的美食奉献给您。“把避风塘带回家”——让您品味美食的同时拥有健康，享受生活。</t>
         </is>
       </c>
+      <c r="Y212" t="inlineStr">
+        <is>
+          <t>1336</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -30596,6 +31656,11 @@
       <c r="X213" t="inlineStr">
         <is>
           <t>上海表业有限公司传承上海牌手表光荣传统和海派文化精华，积极推进以“品牌经典化、产品时尚化、营销创新化”为主题的品牌战略，努力构筑人才高地，长期坚持产品研发，在做精、做特、做强上花功夫，已累计打造了20项产品专利、12项专用技术。公司至今已推出多针、露摆、跑码和陀飞轮四大产品系列，200多种不同款式的中高端机械表及机心，产品畅销亚洲、北美和欧洲市场，人均创利名列行业前茅，是传统产业中创新驱动、提升品牌的亮点企业。</t>
+        </is>
+      </c>
+      <c r="Y213" t="inlineStr">
+        <is>
+          <t>1337</t>
         </is>
       </c>
     </row>
@@ -30713,6 +31778,11 @@
 公司主要生产产品为汽车发动机滤清器：机油滤清器、燃油滤清器、空气滤清器以及国四、国五滤清器等。采用国内高效生产设备、生产线，并进口国际先进的产品检测设备。目前主要生产设备有：400T、250T、200T、110T、63T、45T等多台快速冲压设备、自动攻丝甩油一体机、旋转式多工位自动焊接机、磷化喷漆流水线、快速封边机、感应式自动喷油机、多台单组、双组注胶机、旋装产品流水线、滤芯组装流水线、燃滤专用生产线、法国进口电磁焊生产线、三十万级净化国V专用生产线等。</t>
         </is>
       </c>
+      <c r="Y214" t="inlineStr">
+        <is>
+          <t>1338</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -30824,6 +31894,11 @@
           <t>主要生产丙烯酸树脂，用于齿科、涂料等行业。</t>
         </is>
       </c>
+      <c r="Y215" t="inlineStr">
+        <is>
+          <t>201902294</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -30931,6 +32006,11 @@
           <t>主要以批发化学品为主，并属于自有储存仓库、罐区的危险化学品经营企业。无生产。</t>
         </is>
       </c>
+      <c r="Y216" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -31042,6 +32122,11 @@
           <t>上海伯乐电子有限公司成立于2006年10月，是德昌电机集团的全资子公司，总占地面积约22906m2。其主要业务为设计加工并销售挠性电路板（FPC），智能卡（SMC），薄膜开关（PTF），扁平电缆（FFC）等。目前生产工艺主要包括电镀、腐蚀、组装等。24小时连续生产，产生的工业废水和生活污水均纳管达标排放。产生的废气经过处理设施后高空达标排放，厂界昼夜噪声均达标。</t>
         </is>
       </c>
+      <c r="Y217" t="inlineStr">
+        <is>
+          <t>1339</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -31153,6 +32238,11 @@
           <t>目前生产R、H、D、C、E、G、W等七大系列柴油、天然气发动机，功率覆盖50~1600kW年生产柴油机 2017生产约9万台。</t>
         </is>
       </c>
+      <c r="Y218" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -31262,6 +32352,11 @@
       <c r="X219" t="inlineStr">
         <is>
           <t>经产母猪380头，后备母猪90头，生猪存栏3300头，2017年出栏6800头。</t>
+        </is>
+      </c>
+      <c r="Y219" t="inlineStr">
+        <is>
+          <t>2111</t>
         </is>
       </c>
     </row>
@@ -31367,6 +32462,11 @@
       </c>
       <c r="W220" t="inlineStr"/>
       <c r="X220" t="inlineStr"/>
+      <c r="Y220" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -31478,6 +32578,11 @@
       </c>
       <c r="W221" t="inlineStr"/>
       <c r="X221" t="inlineStr"/>
+      <c r="Y221" t="inlineStr">
+        <is>
+          <t>201902267</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -31595,6 +32700,11 @@
       <c r="X222" t="inlineStr">
         <is>
           <t>上海长盈环保服务有限公司，处理各类危险废弃物，许可证编号035.</t>
+        </is>
+      </c>
+      <c r="Y222" t="inlineStr">
+        <is>
+          <t>160</t>
         </is>
       </c>
     </row>
@@ -31696,6 +32806,11 @@
       </c>
       <c r="W223" t="inlineStr"/>
       <c r="X223" t="inlineStr"/>
+      <c r="Y223" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -31767,6 +32882,11 @@
       <c r="V224" t="inlineStr"/>
       <c r="W224" t="inlineStr"/>
       <c r="X224" t="inlineStr"/>
+      <c r="Y224" t="inlineStr">
+        <is>
+          <t>202001006</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -31838,6 +32958,11 @@
       <c r="V225" t="inlineStr"/>
       <c r="W225" t="inlineStr"/>
       <c r="X225" t="inlineStr"/>
+      <c r="Y225" t="inlineStr">
+        <is>
+          <t>201904067</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -31953,6 +33078,11 @@
           <t>上海城建日沥特种沥青有限公司奉贤工厂与2017年4月开工建设，与2018年3月建设完成。开始试生产。与2019年2月完成了环保自主验收工作及固体废弃物验收备案工作。2018年底申领排污许可证。废气在线监测设备安装完成，正处于验收中。</t>
         </is>
       </c>
+      <c r="Y226" t="inlineStr">
+        <is>
+          <t>201903002</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -32062,6 +33192,11 @@
       <c r="X227" t="inlineStr">
         <is>
           <t>堡镇污水处理厂位于崇明县堡镇港以西，平岛路与长江交界处。堡镇片污水处理系统服务范围：东起八效港、西至小竖河—张涨港，北至南横引河的堡镇片城镇化地区，服务面积约15 km2。污水处理采用A／A／O处理工艺。目前设计日处理污水能力为1.25万立方米。污水主要来源是居民生活污水。设计进水CODCr为250mg／L，BOD5为150mg／L，SS为200mg／L，TP为7mg／L，NH3-N为30mg／L，TN为45mg／L。设计出水执行《城镇污水处理厂污染物排放标准》（GB18918-2002）一级A排放标准，尾水通过紫外线消毒后排入长江。剩余污泥经过叠螺机脱水后由上海灜勋环境卫生服务有限公司外运至陈家镇污水厂堆肥处理。堡镇污水处理厂设有1个总排口，厂内为24小时连续处理污水，经处理达标后直排江河——长江。</t>
+        </is>
+      </c>
+      <c r="Y227" t="inlineStr">
+        <is>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -32171,6 +33306,11 @@
           <t>陈家镇污水厂位于陈家镇八滧港以东，东至八滧港以东约350米处，西至八滧港，南至长江一线大堤岸转河、北至二线大堤岸转河，总占地面积77000平方米，其中一期工程占地面积约47364平方米；一期设计规模为1.75×104m3／d，设备分期安装，服务人口约12.8万人（其中镇区城镇人口8万人）；近期（2015年）设计规模为3.5×104m3／d，服务人口约17.0万人（其中镇区城镇人口11万人）；远期（2020年）设计规模为7.0×104m3／d，服务人口约24.0万人（其中镇区城镇人口16万人）。设计进水CODCr为250mg／L，BOD5为150mg／L，SS为200mg／L，TP为6.5mg／L，NH3-N为32.5mg／L，TN为50mg／L。设计出水执行《城镇污水处理厂污染物排放标准》（GB18918-2002）一级A排放标准，尾水通过紫外线消毒后排入长江。剩余污泥采用重力浓缩，经机械脱水后进入好氧堆肥车间进行深度处理，最终由上海灜勋环境卫生服务有限公司外运至上海城投瀛洲生活垃圾处置有限公司崇明县生活垃圾综合处理场。陈家镇污水处理厂设有1个总排口，厂内为24小时连续处理污水，经处理达标后直排江河——长江。</t>
         </is>
       </c>
+      <c r="Y228" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -32286,6 +33426,11 @@
           <t>城桥污水处理厂位于崇明县城桥镇岱山路19号，占地6.7公顷。服务范围：东起东平河，南至崇明县南岸，西为庙港，北以南横引河为界，服务面积约36 km2，总服务人口至2020年约27万人。主要包括南横引河以南区域的城桥镇（含崇明新城）与庙镇镇。污水处理采用改良型A／O处理工艺。目前设计日处理污水能力为2.5万立方米。污水主要来源是居民生活污水。设计进水CODCr为250mg／L，BOD5为150mg／L，SS为200mg／L，TP为6.5mg／L，NH3-N为32.5mg／L，TN为50mg／L。设计出水执行《城镇污水处理厂污染物排放标准》（GB18918-2002）一级A排放标准，尾水通过紫外线消毒后排入长江。剩余污泥采用重力浓缩，经机械脱水后进行好氧堆肥处理，对非后的污泥由上海灜勋环境卫生服务有限公司外运至上海城投瀛洲生活垃圾处置有限公司崇明县生活垃圾综合处理场。城桥污水处理厂设有1个总排口，厂内为24小时连续处理污水，经处理达标后直排江河——长江。</t>
         </is>
       </c>
+      <c r="Y229" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -32391,6 +33536,11 @@
       <c r="X230" t="inlineStr">
         <is>
           <t>新河污水处理厂位于崇明县新河镇新桐路以东、海桥港以西、唐家湾河以南、富临路以北。新河片污水处理系统服务范围：东与小竖河、张涨港为界，南至崇明县南岸，西为张网港，北以南横引河，服务面积约46 km2。目前主要包括新河镇镇区范围内的老城区和新建区，以及形成了一定规模的市级工业园，即富盛经济开发区。污水处理采用成熟的A／A／O处理工艺。目前设计日处理污水能力为0.5万立方米。污水主要来源是居民生活污水。设计进水CODCr为250mg／L，BOD5为130mg／L，SS为200mg／L，TP为6.5mg／L，NH3-N为35mg／L，TN为45mg／L。设计出水执行《城镇污水处理厂污染物排放标准》（GB18918-2002）一级A排放标准，尾水通过紫外线消毒后排入长江。剩余污泥采用机械浓缩，经机械脱水后由上海灜勋环境卫生服务有限公司外运至城桥污水处理厂进行污泥堆肥处置。新河污水处理厂设有1个总排口，厂内为24小时连续处理污水，经处理达标后直排江河——长江。</t>
+        </is>
+      </c>
+      <c r="Y230" t="inlineStr">
+        <is>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -32496,6 +33646,11 @@
       </c>
       <c r="W231" t="inlineStr"/>
       <c r="X231" t="inlineStr"/>
+      <c r="Y231" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -32611,6 +33766,11 @@
           <t>新浜污水处理厂，位于上海市松江区新浜镇茹塘路110弄60号。厂占地面积34668平方米，服务面积70.86平方公里。近期工程设计规模为12000m3／d，远期工程设计规模为22000m3／d。工程于2007年4月动工修建，于2008年6月20日开始进行生物调试，2009年4月2日通过环保部门正式验收。处理后尾水排入弯良泾，流入菇塘河（黄浦江的支流），出水水质指标国家一级排放标准中的B标准（CB18918-2002）</t>
         </is>
       </c>
+      <c r="Y232" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -32720,6 +33880,11 @@
       <c r="X233" t="inlineStr">
         <is>
           <t>叶榭污水处理厂，位于上海市松江区叶榭镇叶发路18号。厂占地面积24640平方米，服务面积8.47平方公里，服务人口6万。叶榭污水处理厂工程设计规模为17000m3／d，工程于2005年10月动工修建，2007年10月20日进行生物调试，2008年3月10日竣工验收，进行正式生产。</t>
+        </is>
+      </c>
+      <c r="Y233" t="inlineStr">
+        <is>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -32821,6 +33986,11 @@
       </c>
       <c r="W234" t="inlineStr"/>
       <c r="X234" t="inlineStr"/>
+      <c r="Y234" t="inlineStr">
+        <is>
+          <t>2045</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -32932,6 +34102,11 @@
           <t>白龙港污水处理厂污水处理设施共计：高效沉淀池3座；生物反应池6座（共12组，包含扩建二期）。目前，每天进厂总水量约为280万m3/d，通常情况下进厂污水由6座生物反应沉淀池进行处理。高峰时段进厂水量超过生物反应池设计处理总量时，才开启高效沉淀池进行处理，分流生物反应池处理压力。生物反应池中前8组执行GB18918-2002二级排放标准，实际出水水质优于国家二级排放标准。主要污染物限值：COD≤100mg/L，BOD5≤30mg/L，SS≤30mg/L，氨氮≤25（30）mg/L，TP≤3mg/L 生物反应池中后4组执行GB18918-2002一级B排放标准，目前正在试运行期。主要污染物限值：COD≤60mg/L，BOD5≤20mg/L，SS≤20mg/L，氨氮≤8（15）mg/L，TP≤1mg/L 本厂设2座出口泵站，通过压力流将处理后的污水排放至髙位井，然后通过箱涵进行深海排放，最终排入长江中下游干流。</t>
         </is>
       </c>
+      <c r="Y235" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -33039,6 +34214,11 @@
       </c>
       <c r="W236" t="inlineStr"/>
       <c r="X236" t="inlineStr"/>
+      <c r="Y236" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -33148,6 +34328,11 @@
       <c r="X237" t="inlineStr">
         <is>
           <t>石洞口污水处理厂是由上海市苏州河综合整治建设有限公司（简称苏建公司）承建，是苏州河综合整治一期工程的标志性工程。污水处理厂位于上海市宝山区盛桥石洞口，即原西干线污水总管出口处，北邻长江，东西两侧分别为石洞口煤气厂和罗泾煤码头。石洞口污水厂主要处理西干线现状区域（主要收集市区苏州河两岸、普陀、闸北等地区）、苏州河支流截污工程北片及南翔地区的污水，规划服务面积150km2，服务人口70万人。污水厂一期工程用地面积为28.20ha，处理规模为40万m3／d，污水处理采用一体化活性污泥法，于2002年9月建成通水，经处理后出水达到《城镇污水处理厂污染物排放标准》（GB 18918－2002）一级B标准排放至长江。2018年1月1日提标后执行一级A排放标准。</t>
+        </is>
+      </c>
+      <c r="Y237" t="inlineStr">
+        <is>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -33221,6 +34406,11 @@
       <c r="V238" t="inlineStr"/>
       <c r="W238" t="inlineStr"/>
       <c r="X238" t="inlineStr"/>
+      <c r="Y238" t="inlineStr">
+        <is>
+          <t>202004010</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -33340,6 +34530,11 @@
           <t>吴淞污水处理厂的原处理工艺为缺氧-好氧二级生物处理工艺，无强化除磷功能，改造后吴淞污水处理厂采用多点进水改良A／A／O工艺。城市污水经厂内进水帘格井、进水泵房输送至预处理设施，预处理设施主要包括细格栅和曝气沉砂池，用于除去水中的漂浮物和沙粒。以保证后续处理构筑物的正常运行。污水经预处理后，进入初沉池，初沉池可去除约40％-55％的SS，20％-30％的BOD以及10％的 TN和NH4-N。初沉池出水至生物反应池，生物反应池由厌氧段I、缺氧段、缺氧段II和好氧段四个区组成。其中部分污水进入生物反应池的厌氧段，另一部分污水进入厌氧段之后的缺氧段。污水经由厌氧段、缺氧段以及缺氧／好氧交替段流入好氧段。好氧段出水一部分至二沉池进行泥水分离，另一部分则通过回流泵房至缺氧段（内回流比为60％～100％）。二沉池出水进入紫外线消毒池，消毒后外排长江。</t>
         </is>
       </c>
+      <c r="Y239" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -33455,6 +34650,11 @@
           <t>上海竹园第二污水处理厂是上海城市环境项目污水治理三期工程子项目的一部分，位于浦东新区，外高桥保税区东北角，北邻长江，占地面积约30万m2， 规模为50万m3／d。2005年7月开工建设，2007年10月投入运行。2016年12月开始提标改造和建设升级补量工程， 竹园二厂处理规模30万m3／d，升级补量工程80万m3／d，共计110万m3／d。2019年1月1日起执行一级A排放标准出水水质达到国家一级A标准。</t>
         </is>
       </c>
+      <c r="Y240" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -33559,6 +34759,11 @@
       </c>
       <c r="W241" t="inlineStr"/>
       <c r="X241" t="inlineStr"/>
+      <c r="Y241" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -33662,6 +34867,11 @@
       </c>
       <c r="W242" t="inlineStr"/>
       <c r="X242" t="inlineStr"/>
+      <c r="Y242" t="inlineStr">
+        <is>
+          <t>1345</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -33757,6 +34967,11 @@
       </c>
       <c r="W243" t="inlineStr"/>
       <c r="X243" t="inlineStr"/>
+      <c r="Y243" t="inlineStr">
+        <is>
+          <t>201902259</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -33872,6 +35087,11 @@
           <t>堡镇电镀厂主要从事五金产品、货架等金属表面处理。</t>
         </is>
       </c>
+      <c r="Y244" t="inlineStr">
+        <is>
+          <t>1346</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -33985,6 +35205,11 @@
       <c r="X245" t="inlineStr">
         <is>
           <t>合成 乳化</t>
+        </is>
+      </c>
+      <c r="Y245" t="inlineStr">
+        <is>
+          <t>201902288</t>
         </is>
       </c>
     </row>
@@ -34086,6 +35311,11 @@
       </c>
       <c r="W246" t="inlineStr"/>
       <c r="X246" t="inlineStr"/>
+      <c r="Y246" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -34193,6 +35423,11 @@
       </c>
       <c r="W247" t="inlineStr"/>
       <c r="X247" t="inlineStr"/>
+      <c r="Y247" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -34300,6 +35535,11 @@
           <t>奶牛饲养600头，年上市生鲜乳2900吨。</t>
         </is>
       </c>
+      <c r="Y248" t="inlineStr">
+        <is>
+          <t>1349</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -34409,6 +35649,11 @@
       <c r="X249" t="inlineStr">
         <is>
           <t>年生产甲醛3万吨，酚醛树脂5千吨。</t>
+        </is>
+      </c>
+      <c r="Y249" t="inlineStr">
+        <is>
+          <t>1213</t>
         </is>
       </c>
     </row>
@@ -34482,6 +35727,11 @@
       <c r="V250" t="inlineStr"/>
       <c r="W250" t="inlineStr"/>
       <c r="X250" t="inlineStr"/>
+      <c r="Y250" t="inlineStr">
+        <is>
+          <t>201904063</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -34581,6 +35831,11 @@
       </c>
       <c r="W251" t="inlineStr"/>
       <c r="X251" t="inlineStr"/>
+      <c r="Y251" t="inlineStr">
+        <is>
+          <t>1350</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -34692,6 +35947,11 @@
           <t>上海达昌装饰材料有限公司是一家专业塑胶地砖表面图案印刷公司，目前拥有进口8色印刷机生产线5条，且年产量11000万米以上，近年来市场份额稳步提升，在技术、质量和研发方面引领着行业发展方向。</t>
         </is>
       </c>
+      <c r="Y252" t="inlineStr">
+        <is>
+          <t>1057</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -34795,6 +36055,11 @@
       </c>
       <c r="W253" t="inlineStr"/>
       <c r="X253" t="inlineStr"/>
+      <c r="Y253" t="inlineStr">
+        <is>
+          <t>1760</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -34902,6 +36167,11 @@
           <t>上海大宝化工制品有限公司为大宝国际集团的子公司，于2002年8月20日成立，公司位于上海市青浦区重固镇北青公路6009号，公司企业法人营业执照登记机关：上海市工商行政管理局。公司主要从事涂料研发、生产、销售等，产品主要有各种油漆、油漆稀释剂等。20世纪50年代，大宝国际就进行了高品质、高性能涂料产品的研发，并取得了卓越成就。经过半个多世纪的不断精进，“大宝漆”已经成为国际顶尖涂料品牌，产品涵盖木器涂料、水性涂料、建筑涂料、金属涂料及美式涂装，从研发到生产，形成专业一体化的国际化涂料生产企业。</t>
         </is>
       </c>
+      <c r="Y254" t="inlineStr">
+        <is>
+          <t>201902242</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -35006,6 +36276,11 @@
 公司于2005年1月顺利通过了德国TüV公司认证的TS16949质量体系认证，又于2006年2月通过了ISO14001环境管理体系认证。</t>
         </is>
       </c>
+      <c r="Y255" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -35113,6 +36388,11 @@
       </c>
       <c r="W256" t="inlineStr"/>
       <c r="X256" t="inlineStr"/>
+      <c r="Y256" t="inlineStr">
+        <is>
+          <t>1352</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -35184,6 +36464,11 @@
       <c r="V257" t="inlineStr"/>
       <c r="W257" t="inlineStr"/>
       <c r="X257" t="inlineStr"/>
+      <c r="Y257" t="inlineStr">
+        <is>
+          <t>202001028</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -35301,6 +36586,11 @@
       <c r="X258" t="inlineStr">
         <is>
           <t>上海大众动力总成有限公司成立于2005年4月29日，是德国大众汽车（中国）投资有限公司和上海汽车集团股份有限公司合资组建的发动机生产企业，是世界上加工工艺和技术水平最先进的发动机生产基地之一。公司位于上海市嘉定工业园区北部，占地面积29.85万平方米，一期总投资18亿元人民币，年产发动机33万台。2009年，公司启动二期项目，总投资追加到44亿元人民币，2011年正式投产，年产能提升至78万台，2017年，公司三期项目、一期技改项目投产，年产能提升至160万。目前公司员工约2300人。</t>
+        </is>
+      </c>
+      <c r="Y258" t="inlineStr">
+        <is>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -35410,6 +36700,11 @@
           <t>我司一期工程5万吨/天于2004年8月建成运行，2005年8月通过验收，二期工程5万吨/天于2008年6月试运行，2009年4月验收，三期工程7.5万吨/天于2015年9月试运行，2017年完成一、二、三期提标改造，全厂占地260亩，建筑面积2.67万平方米，服务范围157.5平方公里，服务人口大于60万。污水处理采用多点倒置式AA/O工艺，污泥现采用低温真空脱水干化系统，尾水采用紫外线消毒、加次氯酸钠杀菌，并达到国家污水综合排放标准（GB18918-2002）中的一级A＋标准后排入新练祁河。</t>
         </is>
       </c>
+      <c r="Y259" t="inlineStr">
+        <is>
+          <t>2092</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -35525,6 +36820,11 @@
           <t>上海大众祥源动力供应有限公司成立于2006年，公司为上海大众联合发展有限公司的全资公司，主要承担上海大众的动力能源供应服务，是集动力能源供应及专业设备设施维修管理于一体的服务管理型企业，总部位于上海安亭汽车城，旗下控股三家子公司。在为中国中外合资典范上海大众汽车提供生产服务的实践中，大众祥源积累了为大型制造企业提供关键性动能供应保障的管理经验和节能技术，建立了完备的动力能源管控体系和设备设施更新、改造、安装、管理、维护一体化服务架构，形成了为大中型工厂企业、工业园区、产业基地提供非核心辅助业务专业化托管服务能力。公司主要业务包括各类动力能源（蒸汽、压缩空气、中央空调、循环水、供配电）供应的运行、管理、维修工作，机电设备更新改造安装和节能业务咨询等，在有条件的情况下可直接供应蒸汽、压缩空气等动力能源。目前，公司业务已拓展至上海大众（含上海／南京／仪征／宁波）、上汽临港生产基地和上汽研发中心等一系列汽车产业企业。</t>
         </is>
       </c>
+      <c r="Y260" t="inlineStr">
+        <is>
+          <t>3AABA6BFDE6D432D91CC5EEB22E289A0</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -35634,6 +36934,11 @@
       <c r="X261" t="inlineStr">
         <is>
           <t>本公司有12条电镀生产线，主要为五金电子，汽车配件，工程机械等配件产品提供电镀和热镀加工服务。</t>
+        </is>
+      </c>
+      <c r="Y261" t="inlineStr">
+        <is>
+          <t>1353</t>
         </is>
       </c>
     </row>
@@ -35707,6 +37012,11 @@
       <c r="V262" t="inlineStr"/>
       <c r="W262" t="inlineStr"/>
       <c r="X262" t="inlineStr"/>
+      <c r="Y262" t="inlineStr">
+        <is>
+          <t>202001043</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -35810,6 +37120,11 @@
       </c>
       <c r="W263" t="inlineStr"/>
       <c r="X263" t="inlineStr"/>
+      <c r="Y263" t="inlineStr">
+        <is>
+          <t>201902103</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -35881,6 +37196,11 @@
       <c r="V264" t="inlineStr"/>
       <c r="W264" t="inlineStr"/>
       <c r="X264" t="inlineStr"/>
+      <c r="Y264" t="inlineStr">
+        <is>
+          <t>202004011</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -35952,6 +37272,11 @@
       <c r="V265" t="inlineStr"/>
       <c r="W265" t="inlineStr"/>
       <c r="X265" t="inlineStr"/>
+      <c r="Y265" t="inlineStr">
+        <is>
+          <t>201902076</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -36068,6 +37393,11 @@
 公司向上海欣瑜工贸有限公司租赁生产用房，生产车间为966平方米，仓库区域为352平方米，公司员工39人，实行一班制生产，按需加班，年工作天数260天，公司内不设宿舍、食堂、浴室等生活设施。</t>
         </is>
       </c>
+      <c r="Y266" t="inlineStr">
+        <is>
+          <t>201902058</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -36171,6 +37501,11 @@
       </c>
       <c r="W267" t="inlineStr"/>
       <c r="X267" t="inlineStr"/>
+      <c r="Y267" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -36270,6 +37605,11 @@
       </c>
       <c r="W268" t="inlineStr"/>
       <c r="X268" t="inlineStr"/>
+      <c r="Y268" t="inlineStr">
+        <is>
+          <t>201902104</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -36381,6 +37721,11 @@
           <t>上海第一精工模塑有限公司位于闵行技术开发区，成立于1991年3月，注册资金12亿日元，属日商独资企业。园区内现有白云路100号和北斗169号两个工场，一期增资于2003年7月租赁北斗路工场，二期增资新增电镀工艺。北斗路工场现有四栋厂房，分别为冲压、组装、模具加工以及电镀工艺。主要生产电子元器件、塑料元件及模具部件，年产量4.6亿个。</t>
         </is>
       </c>
+      <c r="Y269" t="inlineStr">
+        <is>
+          <t>1356</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -36484,6 +37829,11 @@
       </c>
       <c r="W270" t="inlineStr"/>
       <c r="X270" t="inlineStr"/>
+      <c r="Y270" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -36601,6 +37951,11 @@
       <c r="X271" t="inlineStr">
         <is>
           <t>吴泾热电厂下属8、9号供热发电燃煤机组，装机容量2*300MW。2010年“世博”前，拆除6台原1958年开始建成的小机组，改建成两台2*300MW机组，并同步建设脱硫、脱硝、四电场静电除尘装置。2014年7月1日前，两台机组进一步完成高效除尘改造。2017年完成两台机组的超低排放改造。已完成封闭煤场改造。</t>
+        </is>
+      </c>
+      <c r="Y271" t="inlineStr">
+        <is>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -36702,6 +38057,11 @@
       </c>
       <c r="W272" t="inlineStr"/>
       <c r="X272" t="inlineStr"/>
+      <c r="Y272" t="inlineStr">
+        <is>
+          <t>1765</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -36817,6 +38177,11 @@
           <t>企业主厂房长312米，宽36米，高33米，单机吊重能力达550吨，拥有各类设备780多台，其中关键设备主要从国外各大公司进口，具备了可加工目前世界上最大容量——1800MW四极核电发电机和年产量3000万千瓦的生产能力。 企业以国际一流为目标，不断加大科技投入，注重自主创新和产学研合作，创新人才培养机制，形成了以中科院院士、企业博士后工作站为主体的技术创新体系，在世界首创并拥有自主知识产权的双水内冷发电机技术的基础上，对从西门子引进的国际一流发电机技术进行了进一步的消化、吸收和创新，已经形成完善的空冷30～200MW等级、双水内冷50～350MW等级、水氢冷200～1000MW等级和全氢冷200～350MW等系列产品，在超超临界1000MW级火电、核电及燃气轮发电机等重大项目上实现了历史性突破，取得了一系列技术成果和专利，主导产品均达到国际先进水平，多次荣获国家和上海市科技进步一等奖、国家重点新产品、上海名牌产品等荣誉称号，并出口巴基斯坦、伊朗、印度、孟加拉、越南等国家。企业同时正在研发国际上最大容量的1800MW级核电发电机、1200MW级火电发电机等产品，以形成新的发电机核心技术，不断提高企业核心竞争力。</t>
         </is>
       </c>
+      <c r="Y273" t="inlineStr">
+        <is>
+          <t>1766</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -36923,6 +38288,11 @@
         <is>
           <t>本企业是我国电站主机设备制造业的重点大型骨干企业，是国内最早建成的汽轮机制造基地，1953年正式命名为上海汽轮机厂，1995年底与美国西屋企业合资成立上海汽轮机有限公司，1899年西屋企业股权转为德国西门子西屋企业。产品以电站汽轮机为主，还生产其他动力机械。全企业共有七个生产车间，包括机械加工、装配、冷焊、热处理等，加工门类齐全，技术力量雄厚，工艺装备先进。
 我厂自1855年设计制造了我国第一台6MW汽轮机以来，还相继设计制造了我国第一台114MW汽轮机；国产、引进、核电三种300MW汽轮机；亚临界、超临界600MW汽轮机和超临界900MW分包项目，并已具有设计制造1000MW等级的汽轮机能力。50多年来，我企业为我国电力工业发展，提供了大量优质设备。2002年、2003年汽轮机产量和订单额跃居世界最前列。</t>
+        </is>
+      </c>
+      <c r="Y274" t="inlineStr">
+        <is>
+          <t>1357</t>
         </is>
       </c>
     </row>
@@ -37024,6 +38394,11 @@
       </c>
       <c r="W275" t="inlineStr"/>
       <c r="X275" t="inlineStr"/>
+      <c r="Y275" t="inlineStr">
+        <is>
+          <t>201902105</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -37137,6 +38512,11 @@
       <c r="X276" t="inlineStr">
         <is>
           <t>公司是上海电气（集团）总公司下属综合性电机制造大型企业，上海市高新技术企业，上海市文明企业。前身是上海电机厂，成立于1949年12月1日。1998年改制为上海电机厂有限公司。2004年再改制为上海电气集团上海电机厂有限公司。公司位于黄浦江畔上游的闵行区江川路555号。公司占地面积78万平方米，建筑面积32万平方米，目前资产总计为26亿元，员工2540名。公司主要产品有：汽轮发电机、大中型交流电动机和发电机、直流电动机和发电机、风力发电机等。产品广泛用于电站、冶金、水利、石化、矿山、机械、船舶、科研、交通、水泥、造纸、制糖、轻纺、环保、市政、军工、风电等各行各业。产品远销世界38个国家和地区。公司拥有生产设备3600余台，最大厂房长312米，主跨宽36米，高34米，装有起重能力400吨行车，拥有600吨水上重型码头，具备了运输超重、超大型设备的水路、铁路和公路条件。是全国电机行业中设备最先进、加工能力最强的企业之一。公司是全国电机制造企业中“质量”（ISO9001:2000）、“环境”（ISO14001:2004）、“职业健康安全”（GB／T28001-2007）、“能源”（GB／T23331-2009）四项管理体系证书俱全的企业。</t>
+        </is>
+      </c>
+      <c r="Y276" t="inlineStr">
+        <is>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -37242,6 +38622,11 @@
       </c>
       <c r="W277" t="inlineStr"/>
       <c r="X277" t="inlineStr"/>
+      <c r="Y277" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -37359,6 +38744,11 @@
       <c r="X278" t="inlineStr">
         <is>
           <t>上海电子废弃物交投中心有限公司是从事机关及企事业单位淘汰报废电子电器产品和各类生产性电子废料及带有电子器件的其他物件的收集、储存、拆散销毁、分类处置及综合利用等专业单位。</t>
+        </is>
+      </c>
+      <c r="Y278" t="inlineStr">
+        <is>
+          <t>121</t>
         </is>
       </c>
     </row>
@@ -37432,6 +38822,11 @@
       <c r="V279" t="inlineStr"/>
       <c r="W279" t="inlineStr"/>
       <c r="X279" t="inlineStr"/>
+      <c r="Y279" t="inlineStr">
+        <is>
+          <t>202001009</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -37535,6 +38930,11 @@
       </c>
       <c r="W280" t="inlineStr"/>
       <c r="X280" t="inlineStr"/>
+      <c r="Y280" t="inlineStr">
+        <is>
+          <t>1358</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -37638,6 +39038,11 @@
       </c>
       <c r="W281" t="inlineStr"/>
       <c r="X281" t="inlineStr"/>
+      <c r="Y281" t="inlineStr">
+        <is>
+          <t>1359</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -37749,6 +39154,11 @@
           <t>年产量300kk颗</t>
         </is>
       </c>
+      <c r="Y282" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -37852,6 +39262,11 @@
       </c>
       <c r="W283" t="inlineStr"/>
       <c r="X283" t="inlineStr"/>
+      <c r="Y283" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -37959,6 +39374,11 @@
           <t>上海东方罗门哈斯有限公司（以下简称“东方罗门哈斯”）成立于1998年，由美国罗门哈斯和北京化学工业集团公司合资组建，2009年成为陶氏化学成员企业。东方罗门哈斯位于上海市松江工业园区锦昔路621号，占地面积29905m2，主要生产经营用于涂料、粘合剂等领域的丙烯酸乳液。</t>
         </is>
       </c>
+      <c r="Y284" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -38062,6 +39482,11 @@
           <t>上海东方雨虹防水技术有限责任公司只要产品未防水卷材和防水涂料，防水卷材年产量1000万平方米，涂料年产量2万吨</t>
         </is>
       </c>
+      <c r="Y285" t="inlineStr">
+        <is>
+          <t>201902149</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -38169,6 +39594,11 @@
           <t>上海东冠纸业有限公司隶属于东冠集团，于2004年入驻上海金山工业区，位于上海金山工业区朱行地块林慧路1000号，主要从事造纸及纸加工生产，年原纸产量可达10万吨以上。</t>
         </is>
       </c>
+      <c r="Y286" t="inlineStr">
+        <is>
+          <t>1363</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -38191,7 +39621,11 @@
           <t>否</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr"/>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>1999-07-16</t>
+        </is>
+      </c>
       <c r="F287" t="inlineStr">
         <is>
           <t>拉链制造销售</t>
@@ -38207,11 +39641,7 @@
           <t>607407181001</t>
         </is>
       </c>
-      <c r="I287" t="inlineStr">
-        <is>
-          <t>废水,废气,危废</t>
-        </is>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr">
         <is>
           <t>其他制造业</t>
@@ -38235,7 +39665,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>姜荣</t>
+          <t>伍彩凤</t>
         </is>
       </c>
       <c r="P287" t="inlineStr">
@@ -38245,10 +39675,14 @@
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>jiangrong@ycc.cn</t>
-        </is>
-      </c>
-      <c r="R287" t="inlineStr"/>
+          <t>wucaifeng@ycc.cn</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
       <c r="S287" t="inlineStr">
         <is>
           <t>121.720676</t>
@@ -38272,6 +39706,11 @@
       </c>
       <c r="W287" t="inlineStr"/>
       <c r="X287" t="inlineStr"/>
+      <c r="Y287" t="inlineStr">
+        <is>
+          <t>1364</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -38375,6 +39814,11 @@
       </c>
       <c r="W288" t="inlineStr"/>
       <c r="X288" t="inlineStr"/>
+      <c r="Y288" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -38486,6 +39930,11 @@
           <t>焚烧生活垃圾，余热发电。</t>
         </is>
       </c>
+      <c r="Y289" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -38593,6 +40042,11 @@
           <t>2010年10月正式投产运行，占地12000平方米：现有员工250人，有十多年的电镀加工历史，拥有现代化的标准厂房8000平方米和配套设施。自行设计建造全自动化连续电镀生产线、引进先进电镀生产设备和检测设备，承接各类电脑、数码、汽车等电子电器连接器的电镀铜、镍、金、纯锡电镀等加工业务</t>
         </is>
       </c>
+      <c r="Y290" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -38704,6 +40158,11 @@
       </c>
       <c r="W291" t="inlineStr"/>
       <c r="X291" t="inlineStr"/>
+      <c r="Y291" t="inlineStr">
+        <is>
+          <t>1065</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -38811,6 +40270,11 @@
       </c>
       <c r="W292" t="inlineStr"/>
       <c r="X292" t="inlineStr"/>
+      <c r="Y292" t="inlineStr">
+        <is>
+          <t>1773</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -38926,6 +40390,11 @@
           <t>上海杜邦农化有限公司是中美合资的大型农化企业，于1990 年4 月30 日正式开业，美国杜邦公司占80%股份，上海华谊集团公司占20%股份。法定地址在上海市浦东新区浦东北路3055 号，2010年在上海化学工业区建设杜邦农化化工区厂，化工区厂位于舜工路39 号，工厂占地面积42713 m2，一期项目主要使用杜邦高新技术生产超高效、高附加值、安全低毒的氯虫甲酰胺剂，年产800吨/年，二期扩建1200吨/年 氯虫苯甲酰胺生产装置，同步生产600吨/年溴氰虫酰胺，二期项目增加溶剂回收装置，处置回收现有和二期扩建产生的乙腈溶剂。</t>
         </is>
       </c>
+      <c r="Y293" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -39043,6 +40512,11 @@
       <c r="X294" t="inlineStr">
         <is>
           <t>上海杜邦农化有限公司有浦东和化工区两个工厂，该页面为浦东工厂信息。浦东工厂主要生产磺酰脲类除草剂原药和制剂产品。</t>
+        </is>
+      </c>
+      <c r="Y294" t="inlineStr">
+        <is>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -39116,6 +40590,11 @@
       <c r="V295" t="inlineStr"/>
       <c r="W295" t="inlineStr"/>
       <c r="X295" t="inlineStr"/>
+      <c r="Y295" t="inlineStr">
+        <is>
+          <t>201902150</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -39225,6 +40704,11 @@
       <c r="X296" t="inlineStr">
         <is>
           <t>上海恩超环保科技有限公司是一家专业回收利用危险废物的有资质厂家。按照经营许可范围合法收集各类含铜废物、含镍废物、表面处理废物、废弃线路板、废酸、废碱等，环保局核准18500吨/年。公司本着清洁生产、循环经济的原则，尽最大可能将危险废物资源利用最大化，有毒物质无害化。  主要产品包括氢氧化铜、氢氧化镍、铜粉等。</t>
+        </is>
+      </c>
+      <c r="Y296" t="inlineStr">
+        <is>
+          <t>1776</t>
         </is>
       </c>
     </row>
@@ -39298,6 +40782,11 @@
       <c r="V297" t="inlineStr"/>
       <c r="W297" t="inlineStr"/>
       <c r="X297" t="inlineStr"/>
+      <c r="Y297" t="inlineStr">
+        <is>
+          <t>202004012</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -39377,6 +40866,11 @@
       <c r="V298" t="inlineStr"/>
       <c r="W298" t="inlineStr"/>
       <c r="X298" t="inlineStr"/>
+      <c r="Y298" t="inlineStr">
+        <is>
+          <t>2083</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -39490,6 +40984,11 @@
       <c r="X299" t="inlineStr">
         <is>
           <t>上海恩梯恩精密机电有限公司为日商独资企业，主要产品有等速万向节、驱动桥总成、转矩限制器、各类精密轴承等及其零配件，产品60％销往中国,其余40％销往日本、美国、法国、印度尼西亚等世界各地。</t>
+        </is>
+      </c>
+      <c r="Y299" t="inlineStr">
+        <is>
+          <t>155</t>
         </is>
       </c>
     </row>
@@ -39591,6 +41090,11 @@
       </c>
       <c r="W300" t="inlineStr"/>
       <c r="X300" t="inlineStr"/>
+      <c r="Y300" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -39698,6 +41202,11 @@
           <t>我公司现有环保型成套沥青拌合设备4000型设备一台和2000型设备一台，2蒸吨导热油锅炉一台。2015年完成“油改气”工程，现采用清洁能源--管道天然气作为生产燃料，2017年完成VOCs环保设备的安装并投入生产使用，废气排放达标。2017年7月安装了1台扬尘自动在线检测仪、2017年10月安装了2台臭气浓度自动在线检测仪。</t>
         </is>
       </c>
+      <c r="Y301" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -39807,6 +41316,11 @@
       <c r="X302" t="inlineStr">
         <is>
           <t>本公司大场基本主要生产ARJ21-700涡扇支线飞机，同时承接波音737水平尾翼、787整流罩、空客A320货舱门框等零部件转包生产项目。主要生产工艺包括钣金机加、工装制造、数控机加、零部件装配、表面处理、化学氧化、阳极氧化、酸洗钝化、喷漆、飞机部装、飞机总装等。</t>
+        </is>
+      </c>
+      <c r="Y302" t="inlineStr">
+        <is>
+          <t>1779</t>
         </is>
       </c>
     </row>
@@ -39912,6 +41426,11 @@
       </c>
       <c r="W303" t="inlineStr"/>
       <c r="X303" t="inlineStr"/>
+      <c r="Y303" t="inlineStr">
+        <is>
+          <t>1367</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -40015,6 +41534,11 @@
       </c>
       <c r="W304" t="inlineStr"/>
       <c r="X304" t="inlineStr"/>
+      <c r="Y304" t="inlineStr">
+        <is>
+          <t>201902187</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -40124,6 +41648,11 @@
       <c r="X305" t="inlineStr">
         <is>
           <t>污水处理采用改良型氧化沟＋循环澄清池＋滤布滤池工艺，污泥脱水采用机械浓缩脱水＋污泥固化工艺。运用生产运行管理软件WaterPro，设置DateEasy中央调度系统和AVS精确曝气控制系统，优化工艺，提高出水水质的稳定性和达标率，以达到优化运行，达标排放。</t>
+        </is>
+      </c>
+      <c r="Y305" t="inlineStr">
+        <is>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -40233,6 +41762,11 @@
           <t>上海奉锦环境建设管理有限公司是为奉贤东部污水处理厂项目投资、建设、运营而成立的项目公司，公司于2006年6月1日经上海市工商行政管理局批准注册成立，注册资金为人民币12300万元，是由中国水务投资有限公司所属上海环保（集团）有限公司独家出资注册成立。</t>
         </is>
       </c>
+      <c r="Y306" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -40332,6 +41866,11 @@
       </c>
       <c r="W307" t="inlineStr"/>
       <c r="X307" t="inlineStr"/>
+      <c r="Y307" t="inlineStr">
+        <is>
+          <t>1067</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -40445,6 +41984,11 @@
       <c r="X308" t="inlineStr">
         <is>
           <t>上海奉贤西部污水处理有限公司是上海复旦水务工程技术有限公司以BOT方式建设和运行的污水处理项目。该厂位于奉贤区柘林镇奉贤化学工业区海龙路888号。厂总体规划建设日处理55万吨污水，目前已建成日处理15万吨规模，其中一期10万吨，二期5万吨。厂区总面积384亩（规模为30万m3/d 时），另带征沿海防护林绿化和道路面积248亩，共632亩。其中一期占地165亩，二期占地59亩。处理的污水主要来源于金汇港以西的南桥新城、庄行镇、柘林镇、海湾旅游区西块等地区，尾水通过排海管排入杭州湾。服务区域人口85万，面积268km2。</t>
+        </is>
+      </c>
+      <c r="Y308" t="inlineStr">
+        <is>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -40554,6 +42098,11 @@
           <t>蛋鸡养殖及商品蛋销售</t>
         </is>
       </c>
+      <c r="Y309" t="inlineStr">
+        <is>
+          <t>1368</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -40653,6 +42202,11 @@
       </c>
       <c r="W310" t="inlineStr"/>
       <c r="X310" t="inlineStr"/>
+      <c r="Y310" t="inlineStr">
+        <is>
+          <t>1781</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -40764,6 +42318,11 @@
           <t>上海抚佳精细化工有限公司是佳化化学股份有限公司于2007年在上海金山第二工业区投资的企业，注册资金为10300万元。公司于2008年投产，主要从事环氧乙烷、环氧丙烷深加工，包括年产16万吨乙（丙）醇胺、聚醚多元醇和表面活性剂和每年4万吨环氧乙烷深加工项目。</t>
         </is>
       </c>
+      <c r="Y311" t="inlineStr">
+        <is>
+          <t>1217</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -40867,6 +42426,11 @@
       </c>
       <c r="W312" t="inlineStr"/>
       <c r="X312" t="inlineStr"/>
+      <c r="Y312" t="inlineStr">
+        <is>
+          <t>1069</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -40966,6 +42530,11 @@
       </c>
       <c r="W313" t="inlineStr"/>
       <c r="X313" t="inlineStr"/>
+      <c r="Y313" t="inlineStr">
+        <is>
+          <t>201902086</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -41069,6 +42638,11 @@
       </c>
       <c r="W314" t="inlineStr"/>
       <c r="X314" t="inlineStr"/>
+      <c r="Y314" t="inlineStr">
+        <is>
+          <t>1373</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -41180,6 +42754,11 @@
           <t>本公司位于上海市金山区吕巷镇干巷和平工业区内，属于汽配行业。</t>
         </is>
       </c>
+      <c r="Y315" t="inlineStr">
+        <is>
+          <t>1784</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -41289,6 +42868,11 @@
       <c r="X316" t="inlineStr">
         <is>
           <t>公司主要产品为运输用捆绑器（手拉器系列）、挡货撑杆、以及五金工具及相关配套件，产品广泛应用于汽车、轮船、飞机等运送货物固定捆绑用，于 2017年5月底电镀车间、电泳车间向嘉定环保局申请暂停生产。</t>
+        </is>
+      </c>
+      <c r="Y316" t="inlineStr">
+        <is>
+          <t>1374</t>
         </is>
       </c>
     </row>
@@ -41362,6 +42946,11 @@
       <c r="V317" t="inlineStr"/>
       <c r="W317" t="inlineStr"/>
       <c r="X317" t="inlineStr"/>
+      <c r="Y317" t="inlineStr">
+        <is>
+          <t>202004013</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -41475,6 +43064,11 @@
       <c r="X318" t="inlineStr">
         <is>
           <t>主要从事润滑油的调合、灌装的生产，其中，调和的品种有汽油机油、柴油机油、汽油机／柴油机通用油、液压油、齿轮油等，润滑油实际产能约为7万吨／年（设计产能10万吨／年），主要设备表：泵59台、罐60只、溶解槽8只、全自动灌装流水线7套；原辅料：基础油、添加剂；产品：润滑油。</t>
+        </is>
+      </c>
+      <c r="Y318" t="inlineStr">
+        <is>
+          <t>201902107</t>
         </is>
       </c>
     </row>
@@ -41576,6 +43170,11 @@
       </c>
       <c r="W319" t="inlineStr"/>
       <c r="X319" t="inlineStr"/>
+      <c r="Y319" t="inlineStr">
+        <is>
+          <t>1375</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -41691,6 +43290,11 @@
           <t>主要生产车用油、船用油、工业用油等各类中高级润滑油及相关产品；采用一班制夜间无生产；年生产天数为264天。</t>
         </is>
       </c>
+      <c r="Y320" t="inlineStr">
+        <is>
+          <t>201902108</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -41806,6 +43410,11 @@
           <t>上海高士线业有限公司建于1998年8月，主要从事缝纫线的染色和后整理生产业务。公司占地面积约15000平方米，总建筑面积月9295平方米，年可生产优质缝纫线2850吨，2017年实际生产染色缝纫线2200吨。公司非常重视环保工作，分别于1999年、2001年、2014编制过环境影响评价文件，通过了松江区环保局的行政审批，并完成了环保竣工验收。</t>
         </is>
       </c>
+      <c r="Y321" t="inlineStr">
+        <is>
+          <t>1376</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -41909,6 +43518,11 @@
       </c>
       <c r="W322" t="inlineStr"/>
       <c r="X322" t="inlineStr"/>
+      <c r="Y322" t="inlineStr">
+        <is>
+          <t>201902238</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
